--- a/dataset/지역별_연도별_발전량.xlsx
+++ b/dataset/지역별_연도별_발전량.xlsx
@@ -535,58 +535,58 @@
         <v>2024</v>
       </c>
       <c r="B2" t="n">
-        <v>454992</v>
+        <v>57372</v>
       </c>
       <c r="C2" t="n">
-        <v>1584748</v>
+        <v>287942</v>
       </c>
       <c r="D2" t="n">
-        <v>1962317</v>
+        <v>443426</v>
       </c>
       <c r="E2" t="n">
-        <v>910178</v>
+        <v>163075</v>
       </c>
       <c r="F2" t="n">
-        <v>2054262</v>
+        <v>360149</v>
       </c>
       <c r="G2" t="n">
-        <v>372182</v>
+        <v>66946</v>
       </c>
       <c r="H2" t="n">
-        <v>653470</v>
+        <v>149964</v>
       </c>
       <c r="I2" t="n">
-        <v>524858</v>
+        <v>87315</v>
       </c>
       <c r="J2" t="n">
-        <v>9209968</v>
+        <v>2065997</v>
       </c>
       <c r="K2" t="n">
-        <v>8280679</v>
+        <v>1747500</v>
       </c>
       <c r="L2" t="n">
-        <v>20170041</v>
+        <v>4299136</v>
       </c>
       <c r="M2" t="n">
-        <v>34738869</v>
+        <v>7119186</v>
       </c>
       <c r="N2" t="n">
-        <v>19298394</v>
+        <v>4340591</v>
       </c>
       <c r="O2" t="n">
-        <v>10914932</v>
+        <v>2203811</v>
       </c>
       <c r="P2" t="n">
-        <v>3712238</v>
+        <v>634506</v>
       </c>
       <c r="Q2" t="n">
-        <v>11167641</v>
+        <v>2183283</v>
       </c>
       <c r="R2" t="n">
-        <v>28815406</v>
+        <v>5579509</v>
       </c>
       <c r="S2" t="n">
-        <v>154825183</v>
+        <v>31789708</v>
       </c>
     </row>
     <row r="3">
@@ -594,58 +594,58 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>397620</v>
+        <v>56292</v>
       </c>
       <c r="C3" t="n">
-        <v>1296806</v>
+        <v>239892</v>
       </c>
       <c r="D3" t="n">
-        <v>1518891</v>
+        <v>352486</v>
       </c>
       <c r="E3" t="n">
-        <v>747103</v>
+        <v>132939</v>
       </c>
       <c r="F3" t="n">
-        <v>1694113</v>
+        <v>307606</v>
       </c>
       <c r="G3" t="n">
-        <v>305236</v>
+        <v>55787</v>
       </c>
       <c r="H3" t="n">
-        <v>503506</v>
+        <v>114979</v>
       </c>
       <c r="I3" t="n">
-        <v>437543</v>
+        <v>79051</v>
       </c>
       <c r="J3" t="n">
-        <v>7143971</v>
+        <v>1665112</v>
       </c>
       <c r="K3" t="n">
-        <v>6533179</v>
+        <v>1542741</v>
       </c>
       <c r="L3" t="n">
-        <v>15870905</v>
+        <v>3485642</v>
       </c>
       <c r="M3" t="n">
-        <v>27619683</v>
+        <v>6382965</v>
       </c>
       <c r="N3" t="n">
-        <v>14957803</v>
+        <v>3803193</v>
       </c>
       <c r="O3" t="n">
-        <v>8711121</v>
+        <v>1939988</v>
       </c>
       <c r="P3" t="n">
-        <v>3077732</v>
+        <v>648510</v>
       </c>
       <c r="Q3" t="n">
-        <v>8984358</v>
+        <v>2020336</v>
       </c>
       <c r="R3" t="n">
-        <v>23235897</v>
+        <v>5279189</v>
       </c>
       <c r="S3" t="n">
-        <v>123035475</v>
+        <v>28106708</v>
       </c>
     </row>
     <row r="4">
@@ -653,58 +653,58 @@
         <v>2022</v>
       </c>
       <c r="B4" t="n">
-        <v>341328</v>
+        <v>56700</v>
       </c>
       <c r="C4" t="n">
-        <v>1056914</v>
+        <v>202513</v>
       </c>
       <c r="D4" t="n">
-        <v>1166405</v>
+        <v>314651</v>
       </c>
       <c r="E4" t="n">
-        <v>614164</v>
+        <v>124545</v>
       </c>
       <c r="F4" t="n">
-        <v>1386507</v>
+        <v>298719</v>
       </c>
       <c r="G4" t="n">
-        <v>249449</v>
+        <v>52554</v>
       </c>
       <c r="H4" t="n">
-        <v>388527</v>
+        <v>105709</v>
       </c>
       <c r="I4" t="n">
-        <v>358492</v>
+        <v>70616</v>
       </c>
       <c r="J4" t="n">
-        <v>5478859</v>
+        <v>1477146</v>
       </c>
       <c r="K4" t="n">
-        <v>4990438</v>
+        <v>1387167</v>
       </c>
       <c r="L4" t="n">
-        <v>12385263</v>
+        <v>3297826</v>
       </c>
       <c r="M4" t="n">
-        <v>21236718</v>
+        <v>5702239</v>
       </c>
       <c r="N4" t="n">
-        <v>11154610</v>
+        <v>3327637</v>
       </c>
       <c r="O4" t="n">
-        <v>6771133</v>
+        <v>1799579</v>
       </c>
       <c r="P4" t="n">
-        <v>2429222</v>
+        <v>665910</v>
       </c>
       <c r="Q4" t="n">
-        <v>6964022</v>
+        <v>1877893</v>
       </c>
       <c r="R4" t="n">
-        <v>17956708</v>
+        <v>5081453</v>
       </c>
       <c r="S4" t="n">
-        <v>94928767</v>
+        <v>25842857</v>
       </c>
     </row>
     <row r="5">
@@ -712,58 +712,58 @@
         <v>2021</v>
       </c>
       <c r="B5" t="n">
-        <v>284628</v>
+        <v>51655</v>
       </c>
       <c r="C5" t="n">
-        <v>854401</v>
+        <v>167067</v>
       </c>
       <c r="D5" t="n">
-        <v>851754</v>
+        <v>253572</v>
       </c>
       <c r="E5" t="n">
-        <v>489619</v>
+        <v>114075</v>
       </c>
       <c r="F5" t="n">
-        <v>1087788</v>
+        <v>250701</v>
       </c>
       <c r="G5" t="n">
-        <v>196895</v>
+        <v>41874</v>
       </c>
       <c r="H5" t="n">
-        <v>282818</v>
+        <v>87578</v>
       </c>
       <c r="I5" t="n">
-        <v>287876</v>
+        <v>63135</v>
       </c>
       <c r="J5" t="n">
-        <v>4001713</v>
+        <v>1233574</v>
       </c>
       <c r="K5" t="n">
-        <v>3603271</v>
+        <v>1140476</v>
       </c>
       <c r="L5" t="n">
-        <v>9087437</v>
+        <v>2776591</v>
       </c>
       <c r="M5" t="n">
-        <v>15534479</v>
+        <v>4616412</v>
       </c>
       <c r="N5" t="n">
-        <v>7826973</v>
+        <v>2508189</v>
       </c>
       <c r="O5" t="n">
-        <v>4971554</v>
+        <v>1409333</v>
       </c>
       <c r="P5" t="n">
-        <v>1763312</v>
+        <v>573518</v>
       </c>
       <c r="Q5" t="n">
-        <v>5086129</v>
+        <v>1597130</v>
       </c>
       <c r="R5" t="n">
-        <v>12875255</v>
+        <v>3852353</v>
       </c>
       <c r="S5" t="n">
-        <v>69085910</v>
+        <v>20737233</v>
       </c>
     </row>
     <row r="6">
@@ -771,58 +771,58 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>232973</v>
+        <v>47700</v>
       </c>
       <c r="C6" t="n">
-        <v>687334</v>
+        <v>135906</v>
       </c>
       <c r="D6" t="n">
-        <v>598182</v>
+        <v>191816</v>
       </c>
       <c r="E6" t="n">
-        <v>375544</v>
+        <v>100864</v>
       </c>
       <c r="F6" t="n">
-        <v>837087</v>
+        <v>225188</v>
       </c>
       <c r="G6" t="n">
-        <v>155021</v>
+        <v>36692</v>
       </c>
       <c r="H6" t="n">
-        <v>195240</v>
+        <v>68344</v>
       </c>
       <c r="I6" t="n">
-        <v>224741</v>
+        <v>57273</v>
       </c>
       <c r="J6" t="n">
-        <v>2768139</v>
+        <v>969799</v>
       </c>
       <c r="K6" t="n">
-        <v>2462795</v>
+        <v>871117</v>
       </c>
       <c r="L6" t="n">
-        <v>6310846</v>
+        <v>2193969</v>
       </c>
       <c r="M6" t="n">
-        <v>10918067</v>
+        <v>3431766</v>
       </c>
       <c r="N6" t="n">
-        <v>5318784</v>
+        <v>1819949</v>
       </c>
       <c r="O6" t="n">
-        <v>3562221</v>
+        <v>1085723</v>
       </c>
       <c r="P6" t="n">
-        <v>1189794</v>
+        <v>398364</v>
       </c>
       <c r="Q6" t="n">
-        <v>3488999</v>
+        <v>1213860</v>
       </c>
       <c r="R6" t="n">
-        <v>9022902</v>
+        <v>2881921</v>
       </c>
       <c r="S6" t="n">
-        <v>48348677</v>
+        <v>15730251</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/지역별_연도별_발전량.xlsx
+++ b/dataset/지역별_연도별_발전량.xlsx
@@ -535,58 +535,58 @@
         <v>2024</v>
       </c>
       <c r="B2" t="n">
-        <v>57372</v>
+        <v>454992</v>
       </c>
       <c r="C2" t="n">
-        <v>287942</v>
+        <v>1584748</v>
       </c>
       <c r="D2" t="n">
-        <v>443426</v>
+        <v>1962317</v>
       </c>
       <c r="E2" t="n">
-        <v>163075</v>
+        <v>910178</v>
       </c>
       <c r="F2" t="n">
-        <v>360149</v>
+        <v>2054262</v>
       </c>
       <c r="G2" t="n">
-        <v>66946</v>
+        <v>372182</v>
       </c>
       <c r="H2" t="n">
-        <v>149964</v>
+        <v>653470</v>
       </c>
       <c r="I2" t="n">
-        <v>87315</v>
+        <v>524858</v>
       </c>
       <c r="J2" t="n">
-        <v>2065997</v>
+        <v>9209968</v>
       </c>
       <c r="K2" t="n">
-        <v>1747500</v>
+        <v>8280679</v>
       </c>
       <c r="L2" t="n">
-        <v>4299136</v>
+        <v>20170041</v>
       </c>
       <c r="M2" t="n">
-        <v>7119186</v>
+        <v>34738869</v>
       </c>
       <c r="N2" t="n">
-        <v>4340591</v>
+        <v>19298394</v>
       </c>
       <c r="O2" t="n">
-        <v>2203811</v>
+        <v>10914932</v>
       </c>
       <c r="P2" t="n">
-        <v>634506</v>
+        <v>3712238</v>
       </c>
       <c r="Q2" t="n">
-        <v>2183283</v>
+        <v>11167641</v>
       </c>
       <c r="R2" t="n">
-        <v>5579509</v>
+        <v>28815406</v>
       </c>
       <c r="S2" t="n">
-        <v>31789708</v>
+        <v>154825183</v>
       </c>
     </row>
     <row r="3">
@@ -594,58 +594,58 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>56292</v>
+        <v>397620</v>
       </c>
       <c r="C3" t="n">
-        <v>239892</v>
+        <v>1296806</v>
       </c>
       <c r="D3" t="n">
-        <v>352486</v>
+        <v>1518891</v>
       </c>
       <c r="E3" t="n">
-        <v>132939</v>
+        <v>747103</v>
       </c>
       <c r="F3" t="n">
-        <v>307606</v>
+        <v>1694113</v>
       </c>
       <c r="G3" t="n">
-        <v>55787</v>
+        <v>305236</v>
       </c>
       <c r="H3" t="n">
-        <v>114979</v>
+        <v>503506</v>
       </c>
       <c r="I3" t="n">
-        <v>79051</v>
+        <v>437543</v>
       </c>
       <c r="J3" t="n">
-        <v>1665112</v>
+        <v>7143971</v>
       </c>
       <c r="K3" t="n">
-        <v>1542741</v>
+        <v>6533179</v>
       </c>
       <c r="L3" t="n">
-        <v>3485642</v>
+        <v>15870905</v>
       </c>
       <c r="M3" t="n">
-        <v>6382965</v>
+        <v>27619683</v>
       </c>
       <c r="N3" t="n">
-        <v>3803193</v>
+        <v>14957803</v>
       </c>
       <c r="O3" t="n">
-        <v>1939988</v>
+        <v>8711121</v>
       </c>
       <c r="P3" t="n">
-        <v>648510</v>
+        <v>3077732</v>
       </c>
       <c r="Q3" t="n">
-        <v>2020336</v>
+        <v>8984358</v>
       </c>
       <c r="R3" t="n">
-        <v>5279189</v>
+        <v>23235897</v>
       </c>
       <c r="S3" t="n">
-        <v>28106708</v>
+        <v>123035475</v>
       </c>
     </row>
     <row r="4">
@@ -653,58 +653,58 @@
         <v>2022</v>
       </c>
       <c r="B4" t="n">
-        <v>56700</v>
+        <v>341328</v>
       </c>
       <c r="C4" t="n">
-        <v>202513</v>
+        <v>1056914</v>
       </c>
       <c r="D4" t="n">
-        <v>314651</v>
+        <v>1166405</v>
       </c>
       <c r="E4" t="n">
-        <v>124545</v>
+        <v>614164</v>
       </c>
       <c r="F4" t="n">
-        <v>298719</v>
+        <v>1386507</v>
       </c>
       <c r="G4" t="n">
-        <v>52554</v>
+        <v>249449</v>
       </c>
       <c r="H4" t="n">
-        <v>105709</v>
+        <v>388527</v>
       </c>
       <c r="I4" t="n">
-        <v>70616</v>
+        <v>358492</v>
       </c>
       <c r="J4" t="n">
-        <v>1477146</v>
+        <v>5478859</v>
       </c>
       <c r="K4" t="n">
-        <v>1387167</v>
+        <v>4990438</v>
       </c>
       <c r="L4" t="n">
-        <v>3297826</v>
+        <v>12385263</v>
       </c>
       <c r="M4" t="n">
-        <v>5702239</v>
+        <v>21236718</v>
       </c>
       <c r="N4" t="n">
-        <v>3327637</v>
+        <v>11154610</v>
       </c>
       <c r="O4" t="n">
-        <v>1799579</v>
+        <v>6771133</v>
       </c>
       <c r="P4" t="n">
-        <v>665910</v>
+        <v>2429222</v>
       </c>
       <c r="Q4" t="n">
-        <v>1877893</v>
+        <v>6964022</v>
       </c>
       <c r="R4" t="n">
-        <v>5081453</v>
+        <v>17956708</v>
       </c>
       <c r="S4" t="n">
-        <v>25842857</v>
+        <v>94928767</v>
       </c>
     </row>
     <row r="5">
@@ -712,58 +712,58 @@
         <v>2021</v>
       </c>
       <c r="B5" t="n">
-        <v>51655</v>
+        <v>284628</v>
       </c>
       <c r="C5" t="n">
-        <v>167067</v>
+        <v>854401</v>
       </c>
       <c r="D5" t="n">
-        <v>253572</v>
+        <v>851754</v>
       </c>
       <c r="E5" t="n">
-        <v>114075</v>
+        <v>489619</v>
       </c>
       <c r="F5" t="n">
-        <v>250701</v>
+        <v>1087788</v>
       </c>
       <c r="G5" t="n">
-        <v>41874</v>
+        <v>196895</v>
       </c>
       <c r="H5" t="n">
-        <v>87578</v>
+        <v>282818</v>
       </c>
       <c r="I5" t="n">
-        <v>63135</v>
+        <v>287876</v>
       </c>
       <c r="J5" t="n">
-        <v>1233574</v>
+        <v>4001713</v>
       </c>
       <c r="K5" t="n">
-        <v>1140476</v>
+        <v>3603271</v>
       </c>
       <c r="L5" t="n">
-        <v>2776591</v>
+        <v>9087437</v>
       </c>
       <c r="M5" t="n">
-        <v>4616412</v>
+        <v>15534479</v>
       </c>
       <c r="N5" t="n">
-        <v>2508189</v>
+        <v>7826973</v>
       </c>
       <c r="O5" t="n">
-        <v>1409333</v>
+        <v>4971554</v>
       </c>
       <c r="P5" t="n">
-        <v>573518</v>
+        <v>1763312</v>
       </c>
       <c r="Q5" t="n">
-        <v>1597130</v>
+        <v>5086129</v>
       </c>
       <c r="R5" t="n">
-        <v>3852353</v>
+        <v>12875255</v>
       </c>
       <c r="S5" t="n">
-        <v>20737233</v>
+        <v>69085910</v>
       </c>
     </row>
     <row r="6">
@@ -771,58 +771,58 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>47700</v>
+        <v>232973</v>
       </c>
       <c r="C6" t="n">
-        <v>135906</v>
+        <v>687334</v>
       </c>
       <c r="D6" t="n">
-        <v>191816</v>
+        <v>598182</v>
       </c>
       <c r="E6" t="n">
-        <v>100864</v>
+        <v>375544</v>
       </c>
       <c r="F6" t="n">
-        <v>225188</v>
+        <v>837087</v>
       </c>
       <c r="G6" t="n">
-        <v>36692</v>
+        <v>155021</v>
       </c>
       <c r="H6" t="n">
-        <v>68344</v>
+        <v>195240</v>
       </c>
       <c r="I6" t="n">
-        <v>57273</v>
+        <v>224741</v>
       </c>
       <c r="J6" t="n">
-        <v>969799</v>
+        <v>2768139</v>
       </c>
       <c r="K6" t="n">
-        <v>871117</v>
+        <v>2462795</v>
       </c>
       <c r="L6" t="n">
-        <v>2193969</v>
+        <v>6310846</v>
       </c>
       <c r="M6" t="n">
-        <v>3431766</v>
+        <v>10918067</v>
       </c>
       <c r="N6" t="n">
-        <v>1819949</v>
+        <v>5318784</v>
       </c>
       <c r="O6" t="n">
-        <v>1085723</v>
+        <v>3562221</v>
       </c>
       <c r="P6" t="n">
-        <v>398364</v>
+        <v>1189794</v>
       </c>
       <c r="Q6" t="n">
-        <v>1213860</v>
+        <v>3488999</v>
       </c>
       <c r="R6" t="n">
-        <v>2881921</v>
+        <v>9022902</v>
       </c>
       <c r="S6" t="n">
-        <v>15730251</v>
+        <v>48348677</v>
       </c>
     </row>
   </sheetData>
